--- a/Lecture 3 - Descriptive statistics/Examples/Example1_income.xlsx
+++ b/Lecture 3 - Descriptive statistics/Examples/Example1_income.xlsx
@@ -1,29 +1,53 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Teaching\Statistics\Introductory_statistics\Lecture 3 - Descriptive statistics\Examples\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6D99AB0-B30F-45FF-9426-B0B7056F3211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t xml:space="preserve">weekly_income</t>
+    <t>weekly_income</t>
+  </si>
+  <si>
+    <t>Todo:</t>
+  </si>
+  <si>
+    <t>Summary statistics with analysis toolpack</t>
+  </si>
+  <si>
+    <t>If time: italian lottery numbers</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -51,13 +75,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{B05BB4B6-7530-418A-A45E-C88512EBD578}"/>
+  </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -339,1020 +375,1031 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C201"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
         <v>11219</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
         <v>340</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
         <v>38985</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
         <v>76</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
         <v>449</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
         <v>3426</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
         <v>3</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
         <v>193</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
         <v>436</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="n">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
         <v>361</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="n">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
         <v>1053</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="n">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
         <v>812</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="n">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14">
         <v>312</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="n">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15">
         <v>15467</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="n">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16">
         <v>52</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="n">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17">
         <v>457</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="n">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18">
         <v>7640</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="n">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19">
         <v>1160</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="n">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20">
         <v>924</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="n">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21">
         <v>2389</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22">
         <v>1761</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="n">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23">
         <v>821</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="n">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24">
         <v>4649</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="n">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25">
         <v>2298</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="n">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26">
         <v>676</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="n">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27">
         <v>58</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="n">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28">
         <v>333</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="n">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29">
         <v>111</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="n">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30">
         <v>8</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="n">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31">
         <v>321</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="n">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32">
         <v>712</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="n">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33">
         <v>26378</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="n">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34">
         <v>24644</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="n">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35">
         <v>10066</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="n">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36">
         <v>122</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="n">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37">
         <v>27</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="n">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38">
         <v>176</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="n">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39">
         <v>13242</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="n">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40">
         <v>1307</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="n">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41">
         <v>2558</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="n">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42">
         <v>213</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="n">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43">
         <v>50</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="n">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44">
         <v>3333</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="n">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45">
         <v>524</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="n">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46">
         <v>135</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="n">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47">
         <v>1137</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="n">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48">
         <v>6398</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="n">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49">
         <v>6398</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="n">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50">
         <v>8540</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="n">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51">
         <v>512</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="n">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52">
         <v>9886</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="n">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53">
         <v>1031</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="n">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54">
         <v>1605</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="n">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55">
         <v>15842</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" t="n">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56">
         <v>4727</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" t="n">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57">
         <v>1227</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" t="n">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58">
         <v>15656</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" t="n">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59">
         <v>485</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" t="n">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60">
         <v>213</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" t="n">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61">
         <v>2248</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" t="n">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62">
         <v>1233</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" t="n">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63">
         <v>954</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" t="n">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64">
         <v>508</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" t="n">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65">
         <v>191</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" t="n">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66">
         <v>12000</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" t="n">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67">
         <v>40</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" t="n">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68">
         <v>11276</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" t="n">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69">
         <v>129</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" t="n">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70">
         <v>6753</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" t="n">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71">
         <v>79</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" t="n">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72">
         <v>4068</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" t="n">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73">
         <v>293</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" t="n">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74">
         <v>7968</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" t="n">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75">
         <v>280</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" t="n">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76">
         <v>10328</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" t="n">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77">
         <v>2385</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" t="n">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78">
         <v>811</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" t="n">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79">
         <v>432</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" t="n">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80">
         <v>72</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" t="n">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81">
         <v>1034</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" t="n">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82">
         <v>678</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" t="n">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83">
         <v>51216</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" t="n">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84">
         <v>1332</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" t="n">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85">
         <v>1319</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" t="n">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86">
         <v>1599</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" t="n">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87">
         <v>306</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" t="n">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88">
         <v>1021</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" t="n">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89">
         <v>1373</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" t="n">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90">
         <v>12356</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" t="n">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91">
         <v>19552</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" t="n">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92">
         <v>90843</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" t="n">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93">
         <v>21</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" t="n">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94">
         <v>3351</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" t="n">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95">
         <v>711</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" t="n">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96">
         <v>958</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" t="n">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97">
         <v>1868</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" t="n">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98">
         <v>14352</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" t="n">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99">
         <v>9918</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" t="n">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100">
         <v>333</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" t="n">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101">
         <v>1496</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" t="n">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102">
         <v>3282</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" t="n">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A103">
         <v>698</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" t="n">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A104">
         <v>12509</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" t="n">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A105">
         <v>4455</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" t="n">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A106">
         <v>6795</v>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" t="n">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A107">
         <v>1365</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" t="n">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A108">
         <v>880</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" t="n">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A109">
         <v>460</v>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" t="n">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A110">
         <v>3301</v>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" t="n">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A111">
         <v>53</v>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" t="n">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A112">
         <v>5963</v>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" t="n">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113">
         <v>34397</v>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" t="n">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A114">
         <v>164</v>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" t="n">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A115">
         <v>49</v>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" t="n">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A116">
         <v>335</v>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" t="n">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A117">
         <v>170</v>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" t="n">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A118">
         <v>58</v>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" t="n">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A119">
         <v>50637</v>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" t="n">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A120">
         <v>935</v>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" t="n">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A121">
         <v>518</v>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" t="n">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A122">
         <v>4958</v>
       </c>
     </row>
-    <row r="123">
-      <c r="A123" t="n">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A123">
         <v>1911</v>
       </c>
     </row>
-    <row r="124">
-      <c r="A124" t="n">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A124">
         <v>8979</v>
       </c>
     </row>
-    <row r="125">
-      <c r="A125" t="n">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A125">
         <v>28140</v>
       </c>
     </row>
-    <row r="126">
-      <c r="A126" t="n">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A126">
         <v>5562</v>
       </c>
     </row>
-    <row r="127">
-      <c r="A127" t="n">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A127">
         <v>2282</v>
       </c>
     </row>
-    <row r="128">
-      <c r="A128" t="n">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A128">
         <v>4322</v>
       </c>
     </row>
-    <row r="129">
-      <c r="A129" t="n">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A129">
         <v>31</v>
       </c>
     </row>
-    <row r="130">
-      <c r="A130" t="n">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A130">
         <v>281</v>
       </c>
     </row>
-    <row r="131">
-      <c r="A131" t="n">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A131">
         <v>150</v>
       </c>
     </row>
-    <row r="132">
-      <c r="A132" t="n">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A132">
         <v>122</v>
       </c>
     </row>
-    <row r="133">
-      <c r="A133" t="n">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A133">
         <v>11387</v>
       </c>
     </row>
-    <row r="134">
-      <c r="A134" t="n">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A134">
         <v>54</v>
       </c>
     </row>
-    <row r="135">
-      <c r="A135" t="n">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A135">
         <v>30893</v>
       </c>
     </row>
-    <row r="136">
-      <c r="A136" t="n">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A136">
         <v>54</v>
       </c>
     </row>
-    <row r="137">
-      <c r="A137" t="n">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A137">
         <v>339</v>
       </c>
     </row>
-    <row r="138">
-      <c r="A138" t="n">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A138">
         <v>290</v>
       </c>
     </row>
-    <row r="139">
-      <c r="A139" t="n">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A139">
         <v>1980</v>
       </c>
     </row>
-    <row r="140">
-      <c r="A140" t="n">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A140">
         <v>123</v>
       </c>
     </row>
-    <row r="141">
-      <c r="A141" t="n">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A141">
         <v>7001</v>
       </c>
     </row>
-    <row r="142">
-      <c r="A142" t="n">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A142">
         <v>585</v>
       </c>
     </row>
-    <row r="143">
-      <c r="A143" t="n">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A143">
         <v>543</v>
       </c>
     </row>
-    <row r="144">
-      <c r="A144" t="n">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A144">
         <v>1960</v>
       </c>
     </row>
-    <row r="145">
-      <c r="A145" t="n">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A145">
         <v>17991</v>
       </c>
     </row>
-    <row r="146">
-      <c r="A146" t="n">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A146">
         <v>670</v>
       </c>
     </row>
-    <row r="147">
-      <c r="A147" t="n">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A147">
         <v>1294</v>
       </c>
     </row>
-    <row r="148">
-      <c r="A148" t="n">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A148">
         <v>1688</v>
       </c>
     </row>
-    <row r="149">
-      <c r="A149" t="n">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A149">
         <v>50396</v>
       </c>
     </row>
-    <row r="150">
-      <c r="A150" t="n">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A150">
         <v>423</v>
       </c>
     </row>
-    <row r="151">
-      <c r="A151" t="n">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A151">
         <v>509</v>
       </c>
     </row>
-    <row r="152">
-      <c r="A152" t="n">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A152">
         <v>9409</v>
       </c>
     </row>
-    <row r="153">
-      <c r="A153" t="n">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A153">
         <v>197</v>
       </c>
     </row>
-    <row r="154">
-      <c r="A154" t="n">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A154">
         <v>5633</v>
       </c>
     </row>
-    <row r="155">
-      <c r="A155" t="n">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A155">
         <v>42</v>
       </c>
     </row>
-    <row r="156">
-      <c r="A156" t="n">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A156">
         <v>11044</v>
       </c>
     </row>
-    <row r="157">
-      <c r="A157" t="n">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A157">
         <v>2792</v>
       </c>
     </row>
-    <row r="158">
-      <c r="A158" t="n">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A158">
         <v>526</v>
       </c>
     </row>
-    <row r="159">
-      <c r="A159" t="n">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A159">
         <v>820</v>
       </c>
     </row>
-    <row r="160">
-      <c r="A160" t="n">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A160">
         <v>1932</v>
       </c>
     </row>
-    <row r="161">
-      <c r="A161" t="n">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A161">
         <v>24441</v>
       </c>
     </row>
-    <row r="162">
-      <c r="A162" t="n">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A162">
         <v>8727</v>
       </c>
     </row>
-    <row r="163">
-      <c r="A163" t="n">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A163">
         <v>2124</v>
       </c>
     </row>
-    <row r="164">
-      <c r="A164" t="n">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A164">
         <v>15616</v>
       </c>
     </row>
-    <row r="165">
-      <c r="A165" t="n">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A165">
         <v>2139</v>
       </c>
     </row>
-    <row r="166">
-      <c r="A166" t="n">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A166">
         <v>7622</v>
       </c>
     </row>
-    <row r="167">
-      <c r="A167" t="n">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A167">
         <v>30</v>
       </c>
     </row>
-    <row r="168">
-      <c r="A168" t="n">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A168">
         <v>537</v>
       </c>
     </row>
-    <row r="169">
-      <c r="A169" t="n">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A169">
         <v>4752</v>
       </c>
     </row>
-    <row r="170">
-      <c r="A170" t="n">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A170">
         <v>24423</v>
       </c>
     </row>
-    <row r="171">
-      <c r="A171" t="n">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A171">
         <v>2101</v>
       </c>
     </row>
-    <row r="172">
-      <c r="A172" t="n">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A172">
         <v>2865</v>
       </c>
     </row>
-    <row r="173">
-      <c r="A173" t="n">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A173">
         <v>3067</v>
       </c>
     </row>
-    <row r="174">
-      <c r="A174" t="n">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A174">
         <v>3564</v>
       </c>
     </row>
-    <row r="175">
-      <c r="A175" t="n">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A175">
         <v>359</v>
       </c>
     </row>
-    <row r="176">
-      <c r="A176" t="n">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A176">
         <v>94</v>
       </c>
     </row>
-    <row r="177">
-      <c r="A177" t="n">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A177">
         <v>69</v>
       </c>
     </row>
-    <row r="178">
-      <c r="A178" t="n">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A178">
         <v>57</v>
       </c>
     </row>
-    <row r="179">
-      <c r="A179" t="n">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A179">
         <v>2348</v>
       </c>
     </row>
-    <row r="180">
-      <c r="A180" t="n">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A180">
         <v>16203</v>
       </c>
     </row>
-    <row r="181">
-      <c r="A181" t="n">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A181">
         <v>501</v>
       </c>
     </row>
-    <row r="182">
-      <c r="A182" t="n">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A182">
         <v>1426</v>
       </c>
     </row>
-    <row r="183">
-      <c r="A183" t="n">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A183">
         <v>2609</v>
       </c>
     </row>
-    <row r="184">
-      <c r="A184" t="n">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A184">
         <v>1491</v>
       </c>
     </row>
-    <row r="185">
-      <c r="A185" t="n">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A185">
         <v>36944</v>
       </c>
     </row>
-    <row r="186">
-      <c r="A186" t="n">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A186">
         <v>10112</v>
       </c>
     </row>
-    <row r="187">
-      <c r="A187" t="n">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A187">
         <v>16570</v>
       </c>
     </row>
-    <row r="188">
-      <c r="A188" t="n">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A188">
         <v>18722</v>
       </c>
     </row>
-    <row r="189">
-      <c r="A189" t="n">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A189">
         <v>1967</v>
       </c>
     </row>
-    <row r="190">
-      <c r="A190" t="n">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A190">
         <v>1763</v>
       </c>
     </row>
-    <row r="191">
-      <c r="A191" t="n">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A191">
         <v>98</v>
       </c>
     </row>
-    <row r="192">
-      <c r="A192" t="n">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A192">
         <v>4269</v>
       </c>
     </row>
-    <row r="193">
-      <c r="A193" t="n">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A193">
         <v>106</v>
       </c>
     </row>
-    <row r="194">
-      <c r="A194" t="n">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A194">
         <v>43</v>
       </c>
     </row>
-    <row r="195">
-      <c r="A195" t="n">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A195">
         <v>112</v>
       </c>
     </row>
-    <row r="196">
-      <c r="A196" t="n">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A196">
         <v>1275</v>
       </c>
     </row>
-    <row r="197">
-      <c r="A197" t="n">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A197">
         <v>32</v>
       </c>
     </row>
-    <row r="198">
-      <c r="A198" t="n">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A198">
         <v>1692</v>
       </c>
     </row>
-    <row r="199">
-      <c r="A199" t="n">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A199">
         <v>6047</v>
       </c>
     </row>
-    <row r="200">
-      <c r="A200" t="n">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A200">
         <v>126</v>
       </c>
     </row>
-    <row r="201">
-      <c r="A201" t="n">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A201">
         <v>8638</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>